--- a/biology/Zoologie/Citron_de_Provence/Citron_de_Provence.xlsx
+++ b/biology/Zoologie/Citron_de_Provence/Citron_de_Provence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonepteryx cleopatra
 Le Citron de Provence (Gonepteryx cleopatra) est une espèce de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Coliadinae.
@@ -512,12 +524,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Gonepteryx cleopatra a été décrite par le naturaliste suédois Carl von Linné en 1767.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gonepteryx cleopatra a été décrite par le naturaliste suédois Carl von Linné en 1767.
 Synonyme: Gonepteryx europaea Verity, 1913[réf. nécessaire]
-Sous-espèces
-Gonepteryx cleopatra cleopatra (Linnaeus, 1767) en Espagne, Sicile et Afrique du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gonepteryx cleopatra cleopatra (Linnaeus, 1767) en Espagne, Sicile et Afrique du Nord
 Gonepteryx cleopatra balearica (Bubacek, 1920) aux îles Baléares
 Gonepteryx cleopatra italica (Gerhardt, 1882) en Italie (et Sardaigne), France (et Corse)
 Gonepteryx cleopatra dalmatica (Verity, 1908) dans l'ouest des Balkans
@@ -526,7 +575,7 @@
 Gonepteryx cleopatra fiorii (Turati et Fiori, 1930) à Rhodes.
 Gonepteryx cleopatra palmata (Turati, 1921) en Libye
 Gonepteryx cleopatra petronella (De Freina, 1977) à Ibiza.
-Gonepteryx cleopatra taurica (Staudinger, 1881) en Turquie (Anatolie), Syrie, Jordanie, Israël et à Chypre[1].
+Gonepteryx cleopatra taurica (Staudinger, 1881) en Turquie (Anatolie), Syrie, Jordanie, Israël et à Chypre.
 et par ailleurs:
 Gonepteryx cleopatra cleobule Hübner, 1825.
 Gonepteryx cleopatra maderensis C. &amp; R. Felder, 1862.
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>en français : le Citron de Provence
 en anglais : Cleopatra ou Cleopatra butterfly
@@ -567,77 +618,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-Le Citron de Provence a une envergure variable, de 25 à 30 mm, des ailes découpées en forme de feuille, jaune citron chez le mâle, jaune clair tirant sur le verdâtre chez la femelle.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Citron de Provence a une envergure variable, de 25 à 30 mm, des ailes découpées en forme de feuille, jaune citron chez le mâle, jaune clair tirant sur le verdâtre chez la femelle.
 Un point discoïdal brun marque chaque aile sur le revers, alors que c'est un point rouge sur le recto.
 			Gonepteryx cleopatra ♂ MHNT
 			Gonepteryx cleopatra ♂  △MHNT
-Espèces ressemblantes
-Il est très facile de le confondre avec le Citron et la Farineuse dans leur aire de répartition commune.
-Les autres piéridés jaunes ont des ailes à bords arrondis alors que celles du Citron, de la Farineuse et du Citron de Provence sont en forme de feuille.
-Chenille
-Pondus en début de printemps, les œufs jaunes à vert clair éclosent pour donner des chenilles vertes qui se nymphosent puis l'imago émerge vers juin alors que la génération précédente vole encore.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hibernation
-Il vole dès son éclosion en mai - juin, en deux générations dans le sud de son aire de répartition puis dès les premiers beaux jours du printemps suivant après hibernation.
-Le Citron de Provence pratique dans les régions sèches une migration verticale entre le maquis et les sapinières de montagne. Il émerge au printemps en basse altitude puis migre en altitude dans la montagne et y reste les mois d'été pour redescendre à l'automne en basse altitude[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Rhamnus.
 </t>
         </is>
       </c>
@@ -663,17 +679,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Gonepteryx cleopatra est présente dans le Sud de l'Europe (péninsule Ibérique, Sud de la France, Italie, côtes de l'Adriatique, Grèce, îles de la Méditerranée), en Macaronésie, en Afrique du Nord, dans le Sud du Caucase et au Moyen-Orient.
-Dans plusieurs îles où l'espèce est présente, elle y est représentée par une sous-espèce particulière : G. c. cleobule aux îles Canaries, G. c. palmae à La Palma, G. c. maderensis à Madère, G. c. petronella à Ibiza, G. c. insularis en Crète[réf. nécessaire].
-En France métropolitaine, le Citron de Provence est résident dans une trentaine de départements du Midi et en Corse[3],[4]. Des exemplaires erratiques sont parfois observés au nord de son aire de répartition habituelle.
-Biotopes
-Le Citron de Provence occupe les taillis et les bois peu denses jusqu'à 1 800 m.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces ressemblantes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très facile de le confondre avec le Citron et la Farineuse dans leur aire de répartition commune.
+Les autres piéridés jaunes ont des ailes à bords arrondis alors que celles du Citron, de la Farineuse et du Citron de Provence sont en forme de feuille.
 </t>
         </is>
       </c>
@@ -699,10 +721,200 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pondus en début de printemps, les œufs jaunes à vert clair éclosent pour donner des chenilles vertes qui se nymphosent puis l'imago émerge vers juin alors que la génération précédente vole encore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hibernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole dès son éclosion en mai - juin, en deux générations dans le sud de son aire de répartition puis dès les premiers beaux jours du printemps suivant après hibernation.
+Le Citron de Provence pratique dans les régions sèches une migration verticale entre le maquis et les sapinières de montagne. Il émerge au printemps en basse altitude puis migre en altitude dans la montagne et y reste les mois d'été pour redescendre à l'automne en basse altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Rhamnus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonepteryx cleopatra est présente dans le Sud de l'Europe (péninsule Ibérique, Sud de la France, Italie, côtes de l'Adriatique, Grèce, îles de la Méditerranée), en Macaronésie, en Afrique du Nord, dans le Sud du Caucase et au Moyen-Orient.
+Dans plusieurs îles où l'espèce est présente, elle y est représentée par une sous-espèce particulière : G. c. cleobule aux îles Canaries, G. c. palmae à La Palma, G. c. maderensis à Madère, G. c. petronella à Ibiza, G. c. insularis en Crète[réf. nécessaire].
+En France métropolitaine, le Citron de Provence est résident dans une trentaine de départements du Midi et en Corse,. Des exemplaires erratiques sont parfois observés au nord de son aire de répartition habituelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Citron de Provence occupe les taillis et les bois peu denses jusqu'à 1 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citron_de_Provence</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.[réf. nécessaire]
 </t>
